--- a/folder_struct.xlsx
+++ b/folder_struct.xlsx
@@ -1,40 +1,333 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2056c78c0509dc5/Career/Projects/README Generator/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_28B1EBC90373040E62355476585DCE3A8747978A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6EC4713-2A5D-4CB5-BAD9-7E941A76730E}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>FinalFolder</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Skills</t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RDBMS &amp; SQL</t>
+  </si>
+  <si>
+    <t>SQL (MySQL)</t>
+  </si>
+  <si>
+    <t>SQL (PostgreSQL)</t>
+  </si>
+  <si>
+    <t>SQL (SQLite)NoSQL</t>
+  </si>
+  <si>
+    <t>NoSQL (Cassandra)</t>
+  </si>
+  <si>
+    <t>NoSQL (MongoDB)</t>
+  </si>
+  <si>
+    <t>Databases</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Hypothesis Testing</t>
+  </si>
+  <si>
+    <t>Linear Algebra</t>
+  </si>
+  <si>
+    <t>Calculus</t>
+  </si>
+  <si>
+    <t>SciPy</t>
+  </si>
+  <si>
+    <t>Numpy</t>
+  </si>
+  <si>
+    <t>Pandas</t>
+  </si>
+  <si>
+    <t>Seaborn</t>
+  </si>
+  <si>
+    <t>Matplotlib</t>
+  </si>
+  <si>
+    <t>Plotly</t>
+  </si>
+  <si>
+    <t>Dash</t>
+  </si>
+  <si>
+    <t>Folium</t>
+  </si>
+  <si>
+    <t>BeautifulSoup</t>
+  </si>
+  <si>
+    <t>Scikit-learn</t>
+  </si>
+  <si>
+    <t>Keras</t>
+  </si>
+  <si>
+    <t>TensorFlow</t>
+  </si>
+  <si>
+    <t>PyTorch</t>
+  </si>
+  <si>
+    <t>Dataframes</t>
+  </si>
+  <si>
+    <t>ETL &amp;| ELT &amp; Data Pipelines</t>
+  </si>
+  <si>
+    <t>DAGs</t>
+  </si>
+  <si>
+    <t>Apache Airflow</t>
+  </si>
+  <si>
+    <t>Apache Kafka</t>
+  </si>
+  <si>
+    <t>Apache Spark</t>
+  </si>
+  <si>
+    <t>Apache Hadoop</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>Linux/Bash/Shell Commands</t>
+  </si>
+  <si>
+    <t>Webscraping</t>
+  </si>
+  <si>
+    <t>APIs</t>
+  </si>
+  <si>
+    <t>RESTful APIs</t>
+  </si>
+  <si>
+    <t>Data Modeling</t>
+  </si>
+  <si>
+    <t>EDA</t>
+  </si>
+  <si>
+    <t>Data Visualization</t>
+  </si>
+  <si>
+    <t>Data Summarization</t>
+  </si>
+  <si>
+    <t>Data Reporting</t>
+  </si>
+  <si>
+    <t>Dashboards</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>Superived ML</t>
+  </si>
+  <si>
+    <t>Unsupervised ML</t>
+  </si>
+  <si>
+    <t>Semi-supervised ML</t>
+  </si>
+  <si>
+    <t>cross validation</t>
+  </si>
+  <si>
+    <t>grid search</t>
+  </si>
+  <si>
+    <t>NLP</t>
+  </si>
+  <si>
+    <t>Image Recognition</t>
+  </si>
+  <si>
+    <t>Text Recognition</t>
+  </si>
+  <si>
+    <t>Sentiment Analysis</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>Technical Writing</t>
+  </si>
+  <si>
+    <t>C:\Users\dmark\OneDrive\Career\GitHub\CapstoneProject_Full_Data_Engineering</t>
+  </si>
+  <si>
+    <t>CapstoneProject_Full_Data_Engineering</t>
+  </si>
+  <si>
+    <t>C:\Users\dmark\OneDrive\Career\GitHub\CapstoneProject_SpaceX_Predictions</t>
+  </si>
+  <si>
+    <t>CapstoneProject_SpaceX_Predictions</t>
+  </si>
+  <si>
+    <t>C:\Users\dmark\OneDrive\Career\GitHub\Ind_Project_README-Generator</t>
+  </si>
+  <si>
+    <t>Ind_Project_README-Generator</t>
+  </si>
+  <si>
+    <t>C:\Users\dmark\OneDrive\Career\GitHub\Project_Airfoil-Noise-Prediction</t>
+  </si>
+  <si>
+    <t>Project_Airfoil-Noise-Prediction</t>
+  </si>
+  <si>
+    <t>C:\Users\dmark\OneDrive\Career\GitHub\Project_Apache-Airflow-Kafka-on-Toll-Booth-Data</t>
+  </si>
+  <si>
+    <t>Project_Apache-Airflow-Kafka-on-Toll-Booth-Data</t>
+  </si>
+  <si>
+    <t>C:\Users\dmark\OneDrive\Career\GitHub\Project_Automobile-Sales-Visualization</t>
+  </si>
+  <si>
+    <t>Project_Automobile-Sales-Visualization</t>
+  </si>
+  <si>
+    <t>C:\Users\dmark\OneDrive\Career\GitHub\Project_Banks-Web-Scraping-SQL</t>
+  </si>
+  <si>
+    <t>Project_Banks-Web-Scraping-SQL</t>
+  </si>
+  <si>
+    <t>C:\Users\dmark\OneDrive\Career\GitHub\Project_Boston-Data-Project</t>
+  </si>
+  <si>
+    <t>Project_Boston-Data-Project</t>
+  </si>
+  <si>
+    <t>C:\Users\dmark\OneDrive\Career\GitHub\Project_Data-Analysis-Apache-Spark</t>
+  </si>
+  <si>
+    <t>Project_Data-Analysis-Apache-Spark</t>
+  </si>
+  <si>
+    <t>C:\Users\dmark\OneDrive\Career\GitHub\Project_Image-Text-Recognition</t>
+  </si>
+  <si>
+    <t>Project_Image-Text-Recognition</t>
+  </si>
+  <si>
+    <t>C:\Users\dmark\OneDrive\Career\GitHub\Project_Linux-File-Backup</t>
+  </si>
+  <si>
+    <t>Project_Linux-File-Backup</t>
+  </si>
+  <si>
+    <t>C:\Users\dmark\OneDrive\Career\GitHub\Project_ML-Classification</t>
+  </si>
+  <si>
+    <t>Project_ML-Classification</t>
+  </si>
+  <si>
+    <t>C:\Users\dmark\OneDrive\Career\GitHub\Project_ML-Model-Eval-Refine</t>
+  </si>
+  <si>
+    <t>Project_ML-Model-Eval-Refine</t>
+  </si>
+  <si>
+    <t>C:\Users\dmark\OneDrive\Career\GitHub\Project_Sentiment-Analysis</t>
+  </si>
+  <si>
+    <t>Project_Sentiment-Analysis</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -46,94 +339,50 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,351 +669,219 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:BL14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BL15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="67.7265625" customWidth="1"/>
+    <col min="2" max="2" width="36.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Path</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>FinalFolder</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Series</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Summary</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Skills</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Programming</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Python</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>RDBMS &amp; SQL</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>SQL (MySQL)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>SQL (PostgreSQL)</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>SQL (SQLite)NoSQL</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>NoSQL (Cassandra)</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>NoSQL (MongoDB)</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Databases</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Statistics</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Probability</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Hypothesis Testing</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Linear Algebra</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Calculus</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>SciPy</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Numpy</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Pandas</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Seaborn</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Matplotlib</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Plotly</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Dash</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Folium</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>BeautifulSoup</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Scikit-learn</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Keras</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>TensorFlow</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>PyTorch</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Dataframes</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>ETL &amp;| ELT &amp; Data Pipelines</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>DAGs</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Apache Airflow</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Apache Kafka</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Apache Spark</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>Apache Hadoop</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Automation</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>Linux/Bash/Shell Commands</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>Webscraping</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>APIs</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>RESTful APIs</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>Data Modeling</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>EDA</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>Data Visualization</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>Data Summarization</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>Data Reporting</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>Dashboards</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>Regression</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Classification</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>Superived ML</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Unsupervised ML</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>Semi-supervised ML</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>cross validation</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>grid search</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>NLP</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>Image Recognition</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>Text Recognition</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>Sentiment Analysis</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>Communication</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>Technical Writing</t>
-        </is>
+    <row r="1" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>C:\Users\dmark\OneDrive\Career\GitHub\CapstoneProject_Full_Data_Engineering</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CapstoneProject_Full_Data_Engineering</t>
-        </is>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -953,16 +1070,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>C:\Users\dmark\OneDrive\Career\GitHub\CapstoneProject_SpaceX_Predictions</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CapstoneProject_SpaceX_Predictions</t>
-        </is>
+    <row r="3" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -1151,16 +1264,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>C:\Users\dmark\OneDrive\Career\GitHub\Project_Airfoil-Noise-Prediction</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Project_Airfoil-Noise-Prediction</t>
-        </is>
+    <row r="4" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -1349,16 +1458,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>C:\Users\dmark\OneDrive\Career\GitHub\Project_Apache-Airflow-Kafka-on-Toll-Booth-Data</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Project_Apache-Airflow-Kafka-on-Toll-Booth-Data</t>
-        </is>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -1547,16 +1652,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>C:\Users\dmark\OneDrive\Career\GitHub\Project_Automobile-Sales-Visualization</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Project_Automobile-Sales-Visualization</t>
-        </is>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -1745,16 +1846,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>C:\Users\dmark\OneDrive\Career\GitHub\Project_Banks-Web-Scraping-SQL</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Project_Banks-Web-Scraping-SQL</t>
-        </is>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -1943,16 +2040,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>C:\Users\dmark\OneDrive\Career\GitHub\Project_Boston-Data-Project</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Project_Boston-Data-Project</t>
-        </is>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -2141,16 +2234,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>C:\Users\dmark\OneDrive\Career\GitHub\Project_Data-Analysis-Apache-Spark</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Project_Data-Analysis-Apache-Spark</t>
-        </is>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>79</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -2339,16 +2428,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>C:\Users\dmark\OneDrive\Career\GitHub\Project_Image-Text-Recognition</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Project_Image-Text-Recognition</t>
-        </is>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -2537,16 +2622,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>C:\Users\dmark\OneDrive\Career\GitHub\Project_Linux-File-Backup</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Project_Linux-File-Backup</t>
-        </is>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -2735,16 +2816,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>C:\Users\dmark\OneDrive\Career\GitHub\Project_ML-Classification</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Project_ML-Classification</t>
-        </is>
+    <row r="12" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -2933,16 +3010,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>C:\Users\dmark\OneDrive\Career\GitHub\Project_ML-Model-Eval-Refine</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Project_ML-Model-Eval-Refine</t>
-        </is>
+    <row r="13" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -3131,16 +3204,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>C:\Users\dmark\OneDrive\Career\GitHub\Project_Sentiment-Analysis</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Project_Sentiment-Analysis</t>
-        </is>
+    <row r="14" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -3326,6 +3395,200 @@
         <v>0</v>
       </c>
       <c r="BL14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15" t="b">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>0</v>
+      </c>
+      <c r="R15" t="b">
+        <v>0</v>
+      </c>
+      <c r="S15" t="b">
+        <v>0</v>
+      </c>
+      <c r="T15" t="b">
+        <v>0</v>
+      </c>
+      <c r="U15" t="b">
+        <v>0</v>
+      </c>
+      <c r="V15" t="b">
+        <v>0</v>
+      </c>
+      <c r="W15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL15" t="b">
         <v>0</v>
       </c>
     </row>
